--- a/wyniki_temp.xlsx
+++ b/wyniki_temp.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
-  <si>
-    <t>r_pytania</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
+  <si>
+    <t>runda</t>
+  </si>
+  <si>
+    <t>pytanie_nr</t>
   </si>
   <si>
     <t>kategoria</t>
@@ -25,34 +28,85 @@
     <t>pytanie</t>
   </si>
   <si>
-    <t>odpowiada</t>
-  </si>
-  <si>
-    <t>zgaduje</t>
-  </si>
-  <si>
-    <t>Dawid</t>
-  </si>
-  <si>
-    <t>WIktoria</t>
-  </si>
-  <si>
-    <t>Wolisz</t>
-  </si>
-  <si>
-    <t>Światopoglądowe</t>
-  </si>
-  <si>
-    <t>Wolisz poranki czy wieczory?</t>
-  </si>
-  <si>
-    <t>Czy uważasz, że każdy człowiek zasługuje na drugą szansę?</t>
-  </si>
-  <si>
-    <t>Wolisz wziąć prysznic czy kąpiel?</t>
-  </si>
-  <si>
-    <t>Czy uważasz, że wolność słowa powinna mieć ograniczenia?</t>
+    <t>odpowiada_drużyna</t>
+  </si>
+  <si>
+    <t>zgaduje_drużyna</t>
+  </si>
+  <si>
+    <t>punkty_zgaduje</t>
+  </si>
+  <si>
+    <t>punkty_odpowiada</t>
+  </si>
+  <si>
+    <t>odpowiada_gracz</t>
+  </si>
+  <si>
+    <t>punkty_odpowiada_gracz</t>
+  </si>
+  <si>
+    <t>Luźne</t>
+  </si>
+  <si>
+    <t>Śmieszne</t>
+  </si>
+  <si>
+    <t>Czy w dzieciństwie próbowałeś używać siły woli jak Jedi?</t>
+  </si>
+  <si>
+    <t>Czy próbujesz otworzyć drzwi pilotem od auta?</t>
+  </si>
+  <si>
+    <t>Czy lubisz robić notatki, których nigdy nie czytasz?</t>
+  </si>
+  <si>
+    <t>Czy potrafisz pomylić ketchup z pastą do zębów (przez nieuwagę)?</t>
+  </si>
+  <si>
+    <t>Czy często gubisz rzeczy, które trzymasz w ręce?</t>
+  </si>
+  <si>
+    <t>Czy Twoje ręce czasem same coś przewracają i patrzysz na nie z niedowierzaniem?</t>
+  </si>
+  <si>
+    <t>Czy Twoje rozmowy z domowymi sprzętami są coraz bardziej zaawansowane?</t>
+  </si>
+  <si>
+    <t>Czy zdarza Ci się myśleć, że lodówka to najlepszy przyjaciel?</t>
+  </si>
+  <si>
+    <t>Czy masz ulubiony dźwięk... który właściwie Cię irytuje?</t>
+  </si>
+  <si>
+    <t>Czy potrafisz myśleć o jedzeniu już 5 minut po zjedzeniu obiadu?</t>
+  </si>
+  <si>
+    <t>Czy zdarza Ci się mylić dni tygodnia?</t>
+  </si>
+  <si>
+    <t>Czy potrafisz upuścić coś na stopę dokładnie wtedy, gdy jesteś boso?</t>
+  </si>
+  <si>
+    <t>Pierwsza</t>
+  </si>
+  <si>
+    <t>Druga</t>
+  </si>
+  <si>
+    <t>Gracz1</t>
+  </si>
+  <si>
+    <t>Gracz11</t>
+  </si>
+  <si>
+    <t>Gracz2</t>
+  </si>
+  <si>
+    <t>Gracz22</t>
+  </si>
+  <si>
+    <t>Gracz3</t>
   </si>
 </sst>
 </file>
@@ -410,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,97 +492,398 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
